--- a/biology/Botanique/Cedrela/Cedrela.xlsx
+++ b/biology/Botanique/Cedrela/Cedrela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedrela  est le nom botanique d'un genre d'arbres de la famille des Méliacées qui compte sept espèces, originaires d'Amérique. Les plantes de ce genre sont originaires des régions tropicales et subtropicales du continent américain, depuis le Sud du Mexique jusqu'au Nord de l'Argentine.
 Ce sont des arbres à feuillage pérenne ou caduc en saison sèche, à feuilles composées pennées.
@@ -514,7 +526,9 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedrela fissilis Vell. - du Costa Rica à l'Argentine
 Cedrela hirsuta C.DC. - Paraguay
@@ -525,10 +539,6 @@
 Cedrela tonduzii C.DC. - Amérique centrale
 Cedrela odorata est l'espèce la plus commune du genre, largement répandue dans les forêts tropicales et subtropicales  à saison sèche, perdant ses feuilles à la saison sèche qui peut durer plusieurs mois.
 Cedrela lilloi et Cedrela montana se trouvent à des altitudes plus élevées dans des conditions humides, et ont un feuillage pérenne, ou parfois caduc seulement en de courtes périodes.
-Cedrela et Toona
-Le genre Cedrela incluait autrefois les espèces  étroitement apparentées du genre Toona, originaires d'Asie et d'Australasie.
-Cedrela sinensis, l'Acajou de Chine, est l'ancien nom de Toona sinensis.
-Les cédrèles sont maintenant les arbres originaires d'Amérique, et les Toona sont originaires d'Asie et d'Australasie.
 </t>
         </is>
       </c>
@@ -554,10 +564,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Les espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cedrela et Toona</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cedrela incluait autrefois les espèces  étroitement apparentées du genre Toona, originaires d'Asie et d'Australasie.
+Cedrela sinensis, l'Acajou de Chine, est l'ancien nom de Toona sinensis.
+Les cédrèles sont maintenant les arbres originaires d'Amérique, et les Toona sont originaires d'Asie et d'Australasie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cedrela</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cedrela</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedrela odorata est une essence forestière très importante, produisant un bois léger et odorant, offrant une bonne résistance aux termites et aux autres insectes xylophages, résistant également à la pourriture en extérieur.
 Ce bois est souvent vendu sous le nom de « cèdre espagnol » (nom ambigu comme beaucoup de dénominations commerciales car il ne vient pas d'Espagne et ce n'est pas un cèdre).
